--- a/doc/placementdata.xlsx
+++ b/doc/placementdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Placement data</t>
   </si>
@@ -50,34 +50,22 @@
     <t>te</t>
   </si>
   <si>
-    <t>LNT</t>
-  </si>
-  <si>
-    <t>intern</t>
+    <t>dffffdas</t>
+  </si>
+  <si>
+    <t>fucking CEO</t>
   </si>
   <si>
     <t>hchsh@hs.zz</t>
   </si>
   <si>
-    <t>dffffdas</t>
-  </si>
-  <si>
-    <t>fucking CEO</t>
-  </si>
-  <si>
-    <t>nk</t>
-  </si>
-  <si>
-    <t>fj</t>
-  </si>
-  <si>
-    <t>kwhfwlhfbkwf</t>
-  </si>
-  <si>
-    <t>nfne</t>
-  </si>
-  <si>
-    <t>xbbd@didj.com</t>
+    <t>nihip</t>
+  </si>
+  <si>
+    <t>LSD</t>
+  </si>
+  <si>
+    <t>111111111111</t>
   </si>
 </sst>
 </file>
@@ -416,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,9 +417,9 @@
     <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -482,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>9797946</v>
+        <v>999999999</v>
       </c>
       <c r="G4">
         <v>1122334455</v>
@@ -507,40 +495,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>999999999</v>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1122334455</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>9898</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>89495</v>
-      </c>
-      <c r="G6">
-        <v>2147483647</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/placementdata.xlsx
+++ b/doc/placementdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Placement data</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>hchsh@hs.zz</t>
-  </si>
-  <si>
-    <t>nihip</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>111111111111</t>
   </si>
 </sst>
 </file>
@@ -404,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,7 +408,7 @@
     <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -476,32 +467,6 @@
         <v>1122334455</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1234</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1122334455</v>
-      </c>
-      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
